--- a/org-tweetyproject-arg-rank-ext/src/main/java/org/tweetyproject/arg/rbextensionsemantics/evaluation/results/threshold/final_ar-euler_detailed.xlsx
+++ b/org-tweetyproject-arg-rank-ext/src/main/java/org/tweetyproject/arg/rbextensionsemantics/evaluation/results/threshold/final_ar-euler_detailed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TweetyProject\org-tweetyproject-arg-rankings\src\main\java\org\tweetyproject\arg\rankings\rankingbasedextension\evaluation\results\final_results\final_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TweetyProject\org-tweetyproject-arg-rank-ext\src\main\java\org\tweetyproject\arg\rbextensionsemantics\evaluation\results\threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4000599E-5405-4DF7-B749-BCF4983E94DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435B5449-00D7-4BD7-A19C-AFAFF5CE8CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24825" yWindow="2565" windowWidth="20460" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threshold_evaluation_for_EULER_" sheetId="1" r:id="rId1"/>
@@ -630,403 +630,407 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Threshold_evaluation_for_EULER_!$A:$A</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Threshold_evaluation_for_EULER_!$A:$A</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Threshold_evaluation_for_EULER_!$A$2:$A$1048576</c:f>
               <c:strCache>
-                <c:ptCount val="132"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>Value for threshold delta</c:v>
+                  <c:v>0.5670</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5670</c:v>
+                  <c:v>0.5671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5671</c:v>
+                  <c:v>0.5672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5672</c:v>
+                  <c:v>0.5673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5673</c:v>
+                  <c:v>0.5674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5674</c:v>
+                  <c:v>0.5675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5675</c:v>
+                  <c:v>0.5676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5676</c:v>
+                  <c:v>0.5677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5677</c:v>
+                  <c:v>0.5678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5678</c:v>
+                  <c:v>0.5679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5679</c:v>
+                  <c:v>0.5680</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5680</c:v>
+                  <c:v>0.5681</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5681</c:v>
+                  <c:v>0.5682</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5682</c:v>
+                  <c:v>0.5683</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5683</c:v>
+                  <c:v>0.5684</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5684</c:v>
+                  <c:v>0.5685</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5685</c:v>
+                  <c:v>0.5686</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5686</c:v>
+                  <c:v>0.5687</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5687</c:v>
+                  <c:v>0.5688</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5688</c:v>
+                  <c:v>0.5689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5689</c:v>
+                  <c:v>0.5690</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5690</c:v>
+                  <c:v>0.5691</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5691</c:v>
+                  <c:v>0.5692</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5692</c:v>
+                  <c:v>0.5693</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5693</c:v>
+                  <c:v>0.5694</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5694</c:v>
+                  <c:v>0.5695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5695</c:v>
+                  <c:v>0.5696</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5696</c:v>
+                  <c:v>0.5697</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5697</c:v>
+                  <c:v>0.5698</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5698</c:v>
+                  <c:v>0.5699</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5699</c:v>
+                  <c:v>0.5700</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5700</c:v>
+                  <c:v>0.5701</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5701</c:v>
+                  <c:v>0.5702</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5702</c:v>
+                  <c:v>0.5703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5703</c:v>
+                  <c:v>0.5704</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5704</c:v>
+                  <c:v>0.5705</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5705</c:v>
+                  <c:v>0.5706</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5706</c:v>
+                  <c:v>0.5707</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5707</c:v>
+                  <c:v>0.5708</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5708</c:v>
+                  <c:v>0.5709</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5709</c:v>
+                  <c:v>0.5710</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5710</c:v>
+                  <c:v>0.5711</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5711</c:v>
+                  <c:v>0.5712</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5712</c:v>
+                  <c:v>0.5713</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.5713</c:v>
+                  <c:v>0.5714</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5714</c:v>
+                  <c:v>0.5715</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.5715</c:v>
+                  <c:v>0.5716</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5716</c:v>
+                  <c:v>0.5717</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.5717</c:v>
+                  <c:v>0.5718</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5718</c:v>
+                  <c:v>0.5719</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5719</c:v>
+                  <c:v>0.5720</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5720</c:v>
+                  <c:v>0.5721</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5721</c:v>
+                  <c:v>0.5722</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5722</c:v>
+                  <c:v>0.5723</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.5723</c:v>
+                  <c:v>0.5724</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5724</c:v>
+                  <c:v>0.5725</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.5725</c:v>
+                  <c:v>0.5726</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.5726</c:v>
+                  <c:v>0.5727</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5727</c:v>
+                  <c:v>0.5728</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.5728</c:v>
+                  <c:v>0.5729</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.5729</c:v>
+                  <c:v>0.5730</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.5730</c:v>
+                  <c:v>0.5731</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.5731</c:v>
+                  <c:v>0.5732</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.5732</c:v>
+                  <c:v>0.5733</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.5733</c:v>
+                  <c:v>0.5734</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.5734</c:v>
+                  <c:v>0.5735</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.5735</c:v>
+                  <c:v>0.5736</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5736</c:v>
+                  <c:v>0.5737</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5737</c:v>
+                  <c:v>0.5738</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.5738</c:v>
+                  <c:v>0.5739</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.5739</c:v>
+                  <c:v>0.5740</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.5740</c:v>
+                  <c:v>0.5741</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5741</c:v>
+                  <c:v>0.5742</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.5742</c:v>
+                  <c:v>0.5743</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.5743</c:v>
+                  <c:v>0.5744</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.5744</c:v>
+                  <c:v>0.5745</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.5745</c:v>
+                  <c:v>0.5746</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.5746</c:v>
+                  <c:v>0.5747</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.5747</c:v>
+                  <c:v>0.5748</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.5748</c:v>
+                  <c:v>0.5749</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.5749</c:v>
+                  <c:v>0.5750</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.5750</c:v>
+                  <c:v>0.5751</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.5751</c:v>
+                  <c:v>0.5752</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.5752</c:v>
+                  <c:v>0.5753</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.5753</c:v>
+                  <c:v>0.5754</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.5754</c:v>
+                  <c:v>0.5755</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5755</c:v>
+                  <c:v>0.5756</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.5756</c:v>
+                  <c:v>0.5757</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.5757</c:v>
+                  <c:v>0.5758</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.5758</c:v>
+                  <c:v>0.5759</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.5759</c:v>
+                  <c:v>0.5760</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.5760</c:v>
+                  <c:v>0.5761</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.5761</c:v>
+                  <c:v>0.5762</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.5762</c:v>
+                  <c:v>0.5763</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5763</c:v>
+                  <c:v>0.5764</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.5764</c:v>
+                  <c:v>0.5765</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.5765</c:v>
+                  <c:v>0.5766</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.5766</c:v>
+                  <c:v>0.5767</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.5767</c:v>
+                  <c:v>0.5768</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.5768</c:v>
+                  <c:v>0.5769</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5769</c:v>
+                  <c:v>0.5770</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.5770</c:v>
+                  <c:v>0.5771</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.5771</c:v>
+                  <c:v>0.5772</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.5772</c:v>
+                  <c:v>0.5773</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.5773</c:v>
+                  <c:v>0.5774</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.5774</c:v>
+                  <c:v>0.5775</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.5775</c:v>
+                  <c:v>0.5776</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.5776</c:v>
+                  <c:v>0.5777</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.5777</c:v>
+                  <c:v>0.5778</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.5778</c:v>
+                  <c:v>0.5779</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.5779</c:v>
+                  <c:v>0.5780</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.5780</c:v>
+                  <c:v>0.5781</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.5781</c:v>
+                  <c:v>0.5782</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.5782</c:v>
+                  <c:v>0.5783</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.5783</c:v>
+                  <c:v>0.5784</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.5784</c:v>
+                  <c:v>0.5785</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.5785</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.5786</c:v>
+                  <c:v>0.5787</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.5787</c:v>
+                  <c:v>0.5788</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.5788</c:v>
+                  <c:v>0.5789</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.5789</c:v>
+                  <c:v>0.5790</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.5790</c:v>
+                  <c:v>0.5791</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.5791</c:v>
+                  <c:v>0.5792</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.5792</c:v>
+                  <c:v>0.5793</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.5793</c:v>
+                  <c:v>0.5794</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.5794</c:v>
+                  <c:v>0.5795</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.5795</c:v>
+                  <c:v>0.5796</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.5796</c:v>
+                  <c:v>0.5797</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.5797</c:v>
+                  <c:v>0.5798</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.5798</c:v>
+                  <c:v>0.5799</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.5799</c:v>
-                </c:pt>
-                <c:pt idx="131">
                   <c:v>0.5800</c:v>
                 </c:pt>
               </c:strCache>
@@ -1034,10 +1038,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Threshold_evaluation_for_EULER_!$B$2:$B$132</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Threshold_evaluation_for_EULER_!$B$2:$B$132</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Threshold_evaluation_for_EULER_!$B$3:$B$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="131"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1081,7 +1092,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>14</c:v>
@@ -1417,7 +1428,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>9</c:v>
@@ -1426,9 +1437,6 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="130">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -1469,403 +1477,407 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Threshold_evaluation_for_EULER_!$A:$A</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Threshold_evaluation_for_EULER_!$A:$A</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Threshold_evaluation_for_EULER_!$A$2:$A$1048576</c:f>
               <c:strCache>
-                <c:ptCount val="132"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>Value for threshold delta</c:v>
+                  <c:v>0.5670</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5670</c:v>
+                  <c:v>0.5671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5671</c:v>
+                  <c:v>0.5672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5672</c:v>
+                  <c:v>0.5673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5673</c:v>
+                  <c:v>0.5674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5674</c:v>
+                  <c:v>0.5675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5675</c:v>
+                  <c:v>0.5676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5676</c:v>
+                  <c:v>0.5677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5677</c:v>
+                  <c:v>0.5678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5678</c:v>
+                  <c:v>0.5679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5679</c:v>
+                  <c:v>0.5680</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5680</c:v>
+                  <c:v>0.5681</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5681</c:v>
+                  <c:v>0.5682</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5682</c:v>
+                  <c:v>0.5683</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5683</c:v>
+                  <c:v>0.5684</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5684</c:v>
+                  <c:v>0.5685</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5685</c:v>
+                  <c:v>0.5686</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5686</c:v>
+                  <c:v>0.5687</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5687</c:v>
+                  <c:v>0.5688</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5688</c:v>
+                  <c:v>0.5689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5689</c:v>
+                  <c:v>0.5690</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5690</c:v>
+                  <c:v>0.5691</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5691</c:v>
+                  <c:v>0.5692</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5692</c:v>
+                  <c:v>0.5693</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5693</c:v>
+                  <c:v>0.5694</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5694</c:v>
+                  <c:v>0.5695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5695</c:v>
+                  <c:v>0.5696</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5696</c:v>
+                  <c:v>0.5697</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5697</c:v>
+                  <c:v>0.5698</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5698</c:v>
+                  <c:v>0.5699</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5699</c:v>
+                  <c:v>0.5700</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5700</c:v>
+                  <c:v>0.5701</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5701</c:v>
+                  <c:v>0.5702</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5702</c:v>
+                  <c:v>0.5703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5703</c:v>
+                  <c:v>0.5704</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5704</c:v>
+                  <c:v>0.5705</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5705</c:v>
+                  <c:v>0.5706</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5706</c:v>
+                  <c:v>0.5707</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5707</c:v>
+                  <c:v>0.5708</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5708</c:v>
+                  <c:v>0.5709</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5709</c:v>
+                  <c:v>0.5710</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5710</c:v>
+                  <c:v>0.5711</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5711</c:v>
+                  <c:v>0.5712</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5712</c:v>
+                  <c:v>0.5713</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.5713</c:v>
+                  <c:v>0.5714</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5714</c:v>
+                  <c:v>0.5715</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.5715</c:v>
+                  <c:v>0.5716</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5716</c:v>
+                  <c:v>0.5717</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.5717</c:v>
+                  <c:v>0.5718</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5718</c:v>
+                  <c:v>0.5719</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5719</c:v>
+                  <c:v>0.5720</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5720</c:v>
+                  <c:v>0.5721</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5721</c:v>
+                  <c:v>0.5722</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5722</c:v>
+                  <c:v>0.5723</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.5723</c:v>
+                  <c:v>0.5724</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5724</c:v>
+                  <c:v>0.5725</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.5725</c:v>
+                  <c:v>0.5726</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.5726</c:v>
+                  <c:v>0.5727</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5727</c:v>
+                  <c:v>0.5728</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.5728</c:v>
+                  <c:v>0.5729</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.5729</c:v>
+                  <c:v>0.5730</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.5730</c:v>
+                  <c:v>0.5731</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.5731</c:v>
+                  <c:v>0.5732</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.5732</c:v>
+                  <c:v>0.5733</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.5733</c:v>
+                  <c:v>0.5734</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.5734</c:v>
+                  <c:v>0.5735</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.5735</c:v>
+                  <c:v>0.5736</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5736</c:v>
+                  <c:v>0.5737</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5737</c:v>
+                  <c:v>0.5738</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.5738</c:v>
+                  <c:v>0.5739</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.5739</c:v>
+                  <c:v>0.5740</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.5740</c:v>
+                  <c:v>0.5741</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5741</c:v>
+                  <c:v>0.5742</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.5742</c:v>
+                  <c:v>0.5743</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.5743</c:v>
+                  <c:v>0.5744</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.5744</c:v>
+                  <c:v>0.5745</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.5745</c:v>
+                  <c:v>0.5746</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.5746</c:v>
+                  <c:v>0.5747</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.5747</c:v>
+                  <c:v>0.5748</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.5748</c:v>
+                  <c:v>0.5749</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.5749</c:v>
+                  <c:v>0.5750</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.5750</c:v>
+                  <c:v>0.5751</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.5751</c:v>
+                  <c:v>0.5752</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.5752</c:v>
+                  <c:v>0.5753</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.5753</c:v>
+                  <c:v>0.5754</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.5754</c:v>
+                  <c:v>0.5755</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5755</c:v>
+                  <c:v>0.5756</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.5756</c:v>
+                  <c:v>0.5757</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.5757</c:v>
+                  <c:v>0.5758</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.5758</c:v>
+                  <c:v>0.5759</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.5759</c:v>
+                  <c:v>0.5760</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.5760</c:v>
+                  <c:v>0.5761</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.5761</c:v>
+                  <c:v>0.5762</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.5762</c:v>
+                  <c:v>0.5763</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5763</c:v>
+                  <c:v>0.5764</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.5764</c:v>
+                  <c:v>0.5765</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.5765</c:v>
+                  <c:v>0.5766</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.5766</c:v>
+                  <c:v>0.5767</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.5767</c:v>
+                  <c:v>0.5768</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.5768</c:v>
+                  <c:v>0.5769</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5769</c:v>
+                  <c:v>0.5770</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.5770</c:v>
+                  <c:v>0.5771</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.5771</c:v>
+                  <c:v>0.5772</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.5772</c:v>
+                  <c:v>0.5773</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.5773</c:v>
+                  <c:v>0.5774</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.5774</c:v>
+                  <c:v>0.5775</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.5775</c:v>
+                  <c:v>0.5776</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.5776</c:v>
+                  <c:v>0.5777</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.5777</c:v>
+                  <c:v>0.5778</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.5778</c:v>
+                  <c:v>0.5779</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.5779</c:v>
+                  <c:v>0.5780</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.5780</c:v>
+                  <c:v>0.5781</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.5781</c:v>
+                  <c:v>0.5782</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.5782</c:v>
+                  <c:v>0.5783</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.5783</c:v>
+                  <c:v>0.5784</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.5784</c:v>
+                  <c:v>0.5785</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.5785</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.5786</c:v>
+                  <c:v>0.5787</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.5787</c:v>
+                  <c:v>0.5788</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.5788</c:v>
+                  <c:v>0.5789</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.5789</c:v>
+                  <c:v>0.5790</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.5790</c:v>
+                  <c:v>0.5791</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.5791</c:v>
+                  <c:v>0.5792</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.5792</c:v>
+                  <c:v>0.5793</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.5793</c:v>
+                  <c:v>0.5794</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.5794</c:v>
+                  <c:v>0.5795</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.5795</c:v>
+                  <c:v>0.5796</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.5796</c:v>
+                  <c:v>0.5797</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.5797</c:v>
+                  <c:v>0.5798</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.5798</c:v>
+                  <c:v>0.5799</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.5799</c:v>
-                </c:pt>
-                <c:pt idx="131">
                   <c:v>0.5800</c:v>
                 </c:pt>
               </c:strCache>
@@ -1873,10 +1885,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Threshold_evaluation_for_EULER_!$C$2:$C$132</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Threshold_evaluation_for_EULER_!$C$2:$C$132</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Threshold_evaluation_for_EULER_!$C$3:$C$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="131"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1884,7 +1903,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14</c:v>
@@ -2256,7 +2275,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>9</c:v>
@@ -2265,9 +2284,6 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="130">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -2309,403 +2325,407 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Threshold_evaluation_for_EULER_!$A:$A</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Threshold_evaluation_for_EULER_!$A:$A</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Threshold_evaluation_for_EULER_!$A$2:$A$1048576</c:f>
               <c:strCache>
-                <c:ptCount val="132"/>
+                <c:ptCount val="131"/>
                 <c:pt idx="0">
-                  <c:v>Value for threshold delta</c:v>
+                  <c:v>0.5670</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5670</c:v>
+                  <c:v>0.5671</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5671</c:v>
+                  <c:v>0.5672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5672</c:v>
+                  <c:v>0.5673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5673</c:v>
+                  <c:v>0.5674</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5674</c:v>
+                  <c:v>0.5675</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5675</c:v>
+                  <c:v>0.5676</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5676</c:v>
+                  <c:v>0.5677</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.5677</c:v>
+                  <c:v>0.5678</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5678</c:v>
+                  <c:v>0.5679</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5679</c:v>
+                  <c:v>0.5680</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.5680</c:v>
+                  <c:v>0.5681</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5681</c:v>
+                  <c:v>0.5682</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5682</c:v>
+                  <c:v>0.5683</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5683</c:v>
+                  <c:v>0.5684</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5684</c:v>
+                  <c:v>0.5685</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.5685</c:v>
+                  <c:v>0.5686</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.5686</c:v>
+                  <c:v>0.5687</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.5687</c:v>
+                  <c:v>0.5688</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.5688</c:v>
+                  <c:v>0.5689</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.5689</c:v>
+                  <c:v>0.5690</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5690</c:v>
+                  <c:v>0.5691</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.5691</c:v>
+                  <c:v>0.5692</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5692</c:v>
+                  <c:v>0.5693</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.5693</c:v>
+                  <c:v>0.5694</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5694</c:v>
+                  <c:v>0.5695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.5695</c:v>
+                  <c:v>0.5696</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.5696</c:v>
+                  <c:v>0.5697</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.5697</c:v>
+                  <c:v>0.5698</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.5698</c:v>
+                  <c:v>0.5699</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5699</c:v>
+                  <c:v>0.5700</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5700</c:v>
+                  <c:v>0.5701</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5701</c:v>
+                  <c:v>0.5702</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5702</c:v>
+                  <c:v>0.5703</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5703</c:v>
+                  <c:v>0.5704</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5704</c:v>
+                  <c:v>0.5705</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5705</c:v>
+                  <c:v>0.5706</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5706</c:v>
+                  <c:v>0.5707</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5707</c:v>
+                  <c:v>0.5708</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5708</c:v>
+                  <c:v>0.5709</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5709</c:v>
+                  <c:v>0.5710</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5710</c:v>
+                  <c:v>0.5711</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5711</c:v>
+                  <c:v>0.5712</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5712</c:v>
+                  <c:v>0.5713</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.5713</c:v>
+                  <c:v>0.5714</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5714</c:v>
+                  <c:v>0.5715</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.5715</c:v>
+                  <c:v>0.5716</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5716</c:v>
+                  <c:v>0.5717</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.5717</c:v>
+                  <c:v>0.5718</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5718</c:v>
+                  <c:v>0.5719</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5719</c:v>
+                  <c:v>0.5720</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5720</c:v>
+                  <c:v>0.5721</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5721</c:v>
+                  <c:v>0.5722</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5722</c:v>
+                  <c:v>0.5723</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.5723</c:v>
+                  <c:v>0.5724</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5724</c:v>
+                  <c:v>0.5725</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.5725</c:v>
+                  <c:v>0.5726</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.5726</c:v>
+                  <c:v>0.5727</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5727</c:v>
+                  <c:v>0.5728</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.5728</c:v>
+                  <c:v>0.5729</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.5729</c:v>
+                  <c:v>0.5730</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.5730</c:v>
+                  <c:v>0.5731</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.5731</c:v>
+                  <c:v>0.5732</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.5732</c:v>
+                  <c:v>0.5733</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.5733</c:v>
+                  <c:v>0.5734</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.5734</c:v>
+                  <c:v>0.5735</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.5735</c:v>
+                  <c:v>0.5736</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.5736</c:v>
+                  <c:v>0.5737</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.5737</c:v>
+                  <c:v>0.5738</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.5738</c:v>
+                  <c:v>0.5739</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.5739</c:v>
+                  <c:v>0.5740</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.5740</c:v>
+                  <c:v>0.5741</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.5741</c:v>
+                  <c:v>0.5742</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.5742</c:v>
+                  <c:v>0.5743</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.5743</c:v>
+                  <c:v>0.5744</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.5744</c:v>
+                  <c:v>0.5745</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.5745</c:v>
+                  <c:v>0.5746</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.5746</c:v>
+                  <c:v>0.5747</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.5747</c:v>
+                  <c:v>0.5748</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.5748</c:v>
+                  <c:v>0.5749</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.5749</c:v>
+                  <c:v>0.5750</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.5750</c:v>
+                  <c:v>0.5751</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.5751</c:v>
+                  <c:v>0.5752</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.5752</c:v>
+                  <c:v>0.5753</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.5753</c:v>
+                  <c:v>0.5754</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.5754</c:v>
+                  <c:v>0.5755</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.5755</c:v>
+                  <c:v>0.5756</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.5756</c:v>
+                  <c:v>0.5757</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.5757</c:v>
+                  <c:v>0.5758</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.5758</c:v>
+                  <c:v>0.5759</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.5759</c:v>
+                  <c:v>0.5760</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.5760</c:v>
+                  <c:v>0.5761</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.5761</c:v>
+                  <c:v>0.5762</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.5762</c:v>
+                  <c:v>0.5763</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.5763</c:v>
+                  <c:v>0.5764</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.5764</c:v>
+                  <c:v>0.5765</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.5765</c:v>
+                  <c:v>0.5766</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.5766</c:v>
+                  <c:v>0.5767</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.5767</c:v>
+                  <c:v>0.5768</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.5768</c:v>
+                  <c:v>0.5769</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.5769</c:v>
+                  <c:v>0.5770</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.5770</c:v>
+                  <c:v>0.5771</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.5771</c:v>
+                  <c:v>0.5772</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.5772</c:v>
+                  <c:v>0.5773</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.5773</c:v>
+                  <c:v>0.5774</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.5774</c:v>
+                  <c:v>0.5775</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.5775</c:v>
+                  <c:v>0.5776</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.5776</c:v>
+                  <c:v>0.5777</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.5777</c:v>
+                  <c:v>0.5778</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.5778</c:v>
+                  <c:v>0.5779</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.5779</c:v>
+                  <c:v>0.5780</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.5780</c:v>
+                  <c:v>0.5781</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.5781</c:v>
+                  <c:v>0.5782</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.5782</c:v>
+                  <c:v>0.5783</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.5783</c:v>
+                  <c:v>0.5784</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.5784</c:v>
+                  <c:v>0.5785</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.5785</c:v>
+                  <c:v>0.5786</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.5786</c:v>
+                  <c:v>0.5787</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.5787</c:v>
+                  <c:v>0.5788</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.5788</c:v>
+                  <c:v>0.5789</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.5789</c:v>
+                  <c:v>0.5790</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.5790</c:v>
+                  <c:v>0.5791</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.5791</c:v>
+                  <c:v>0.5792</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.5792</c:v>
+                  <c:v>0.5793</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.5793</c:v>
+                  <c:v>0.5794</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.5794</c:v>
+                  <c:v>0.5795</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.5795</c:v>
+                  <c:v>0.5796</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.5796</c:v>
+                  <c:v>0.5797</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.5797</c:v>
+                  <c:v>0.5798</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.5798</c:v>
+                  <c:v>0.5799</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.5799</c:v>
-                </c:pt>
-                <c:pt idx="131">
                   <c:v>0.5800</c:v>
                 </c:pt>
               </c:strCache>
@@ -2713,390 +2733,397 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Threshold_evaluation_for_EULER_!$D$2:$D$132</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Threshold_evaluation_for_EULER_!$D$2:$D$132</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Threshold_evaluation_for_EULER_!$D$3:$D$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="131"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>9</c:v>
@@ -3105,9 +3132,6 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="130">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -3147,392 +3171,799 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="130"/>
+              <c:pt idx="0">
+                <c:v>0.5670</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>0.5671</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>0.5672</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>0.5673</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>0.5674</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>0.5675</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>0.5676</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>0.5677</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>0.5678</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>0.5679</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>0.5680</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>0.5681</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>0.5682</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>0.5683</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>0.5684</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>0.5685</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>0.5686</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>0.5687</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>0.5688</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>0.5689</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>0.5690</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>0.5691</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>0.5692</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>0.5693</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>0.5694</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>0.5695</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>0.5696</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>0.5697</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>0.5698</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>0.5699</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>0.5700</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>0.5701</c:v>
+              </c:pt>
+              <c:pt idx="32">
+                <c:v>0.5702</c:v>
+              </c:pt>
+              <c:pt idx="33">
+                <c:v>0.5703</c:v>
+              </c:pt>
+              <c:pt idx="34">
+                <c:v>0.5704</c:v>
+              </c:pt>
+              <c:pt idx="35">
+                <c:v>0.5705</c:v>
+              </c:pt>
+              <c:pt idx="36">
+                <c:v>0.5706</c:v>
+              </c:pt>
+              <c:pt idx="37">
+                <c:v>0.5707</c:v>
+              </c:pt>
+              <c:pt idx="38">
+                <c:v>0.5708</c:v>
+              </c:pt>
+              <c:pt idx="39">
+                <c:v>0.5709</c:v>
+              </c:pt>
+              <c:pt idx="40">
+                <c:v>0.5710</c:v>
+              </c:pt>
+              <c:pt idx="41">
+                <c:v>0.5711</c:v>
+              </c:pt>
+              <c:pt idx="42">
+                <c:v>0.5712</c:v>
+              </c:pt>
+              <c:pt idx="43">
+                <c:v>0.5713</c:v>
+              </c:pt>
+              <c:pt idx="44">
+                <c:v>0.5714</c:v>
+              </c:pt>
+              <c:pt idx="45">
+                <c:v>0.5715</c:v>
+              </c:pt>
+              <c:pt idx="46">
+                <c:v>0.5716</c:v>
+              </c:pt>
+              <c:pt idx="47">
+                <c:v>0.5717</c:v>
+              </c:pt>
+              <c:pt idx="48">
+                <c:v>0.5718</c:v>
+              </c:pt>
+              <c:pt idx="49">
+                <c:v>0.5719</c:v>
+              </c:pt>
+              <c:pt idx="50">
+                <c:v>0.5720</c:v>
+              </c:pt>
+              <c:pt idx="51">
+                <c:v>0.5721</c:v>
+              </c:pt>
+              <c:pt idx="52">
+                <c:v>0.5722</c:v>
+              </c:pt>
+              <c:pt idx="53">
+                <c:v>0.5723</c:v>
+              </c:pt>
+              <c:pt idx="54">
+                <c:v>0.5724</c:v>
+              </c:pt>
+              <c:pt idx="55">
+                <c:v>0.5725</c:v>
+              </c:pt>
+              <c:pt idx="56">
+                <c:v>0.5726</c:v>
+              </c:pt>
+              <c:pt idx="57">
+                <c:v>0.5727</c:v>
+              </c:pt>
+              <c:pt idx="58">
+                <c:v>0.5728</c:v>
+              </c:pt>
+              <c:pt idx="59">
+                <c:v>0.5729</c:v>
+              </c:pt>
+              <c:pt idx="60">
+                <c:v>0.5730</c:v>
+              </c:pt>
+              <c:pt idx="61">
+                <c:v>0.5731</c:v>
+              </c:pt>
+              <c:pt idx="62">
+                <c:v>0.5732</c:v>
+              </c:pt>
+              <c:pt idx="63">
+                <c:v>0.5733</c:v>
+              </c:pt>
+              <c:pt idx="64">
+                <c:v>0.5734</c:v>
+              </c:pt>
+              <c:pt idx="65">
+                <c:v>0.5735</c:v>
+              </c:pt>
+              <c:pt idx="66">
+                <c:v>0.5736</c:v>
+              </c:pt>
+              <c:pt idx="67">
+                <c:v>0.5737</c:v>
+              </c:pt>
+              <c:pt idx="68">
+                <c:v>0.5738</c:v>
+              </c:pt>
+              <c:pt idx="69">
+                <c:v>0.5739</c:v>
+              </c:pt>
+              <c:pt idx="70">
+                <c:v>0.5740</c:v>
+              </c:pt>
+              <c:pt idx="71">
+                <c:v>0.5741</c:v>
+              </c:pt>
+              <c:pt idx="72">
+                <c:v>0.5742</c:v>
+              </c:pt>
+              <c:pt idx="73">
+                <c:v>0.5743</c:v>
+              </c:pt>
+              <c:pt idx="74">
+                <c:v>0.5744</c:v>
+              </c:pt>
+              <c:pt idx="75">
+                <c:v>0.5745</c:v>
+              </c:pt>
+              <c:pt idx="76">
+                <c:v>0.5746</c:v>
+              </c:pt>
+              <c:pt idx="77">
+                <c:v>0.5747</c:v>
+              </c:pt>
+              <c:pt idx="78">
+                <c:v>0.5748</c:v>
+              </c:pt>
+              <c:pt idx="79">
+                <c:v>0.5749</c:v>
+              </c:pt>
+              <c:pt idx="80">
+                <c:v>0.5750</c:v>
+              </c:pt>
+              <c:pt idx="81">
+                <c:v>0.5751</c:v>
+              </c:pt>
+              <c:pt idx="82">
+                <c:v>0.5752</c:v>
+              </c:pt>
+              <c:pt idx="83">
+                <c:v>0.5753</c:v>
+              </c:pt>
+              <c:pt idx="84">
+                <c:v>0.5754</c:v>
+              </c:pt>
+              <c:pt idx="85">
+                <c:v>0.5755</c:v>
+              </c:pt>
+              <c:pt idx="86">
+                <c:v>0.5756</c:v>
+              </c:pt>
+              <c:pt idx="87">
+                <c:v>0.5757</c:v>
+              </c:pt>
+              <c:pt idx="88">
+                <c:v>0.5758</c:v>
+              </c:pt>
+              <c:pt idx="89">
+                <c:v>0.5759</c:v>
+              </c:pt>
+              <c:pt idx="90">
+                <c:v>0.5760</c:v>
+              </c:pt>
+              <c:pt idx="91">
+                <c:v>0.5761</c:v>
+              </c:pt>
+              <c:pt idx="92">
+                <c:v>0.5762</c:v>
+              </c:pt>
+              <c:pt idx="93">
+                <c:v>0.5763</c:v>
+              </c:pt>
+              <c:pt idx="94">
+                <c:v>0.5764</c:v>
+              </c:pt>
+              <c:pt idx="95">
+                <c:v>0.5765</c:v>
+              </c:pt>
+              <c:pt idx="96">
+                <c:v>0.5766</c:v>
+              </c:pt>
+              <c:pt idx="97">
+                <c:v>0.5767</c:v>
+              </c:pt>
+              <c:pt idx="98">
+                <c:v>0.5768</c:v>
+              </c:pt>
+              <c:pt idx="99">
+                <c:v>0.5769</c:v>
+              </c:pt>
+              <c:pt idx="100">
+                <c:v>0.5770</c:v>
+              </c:pt>
+              <c:pt idx="101">
+                <c:v>0.5771</c:v>
+              </c:pt>
+              <c:pt idx="102">
+                <c:v>0.5772</c:v>
+              </c:pt>
+              <c:pt idx="103">
+                <c:v>0.5773</c:v>
+              </c:pt>
+              <c:pt idx="104">
+                <c:v>0.5774</c:v>
+              </c:pt>
+              <c:pt idx="105">
+                <c:v>0.5775</c:v>
+              </c:pt>
+              <c:pt idx="106">
+                <c:v>0.5776</c:v>
+              </c:pt>
+              <c:pt idx="107">
+                <c:v>0.5777</c:v>
+              </c:pt>
+              <c:pt idx="108">
+                <c:v>0.5778</c:v>
+              </c:pt>
+              <c:pt idx="109">
+                <c:v>0.5779</c:v>
+              </c:pt>
+              <c:pt idx="110">
+                <c:v>0.5780</c:v>
+              </c:pt>
+              <c:pt idx="111">
+                <c:v>0.5781</c:v>
+              </c:pt>
+              <c:pt idx="112">
+                <c:v>0.5782</c:v>
+              </c:pt>
+              <c:pt idx="113">
+                <c:v>0.5783</c:v>
+              </c:pt>
+              <c:pt idx="114">
+                <c:v>0.5784</c:v>
+              </c:pt>
+              <c:pt idx="115">
+                <c:v>0.5785</c:v>
+              </c:pt>
+              <c:pt idx="116">
+                <c:v>0.5786</c:v>
+              </c:pt>
+              <c:pt idx="117">
+                <c:v>0.5787</c:v>
+              </c:pt>
+              <c:pt idx="118">
+                <c:v>0.5788</c:v>
+              </c:pt>
+              <c:pt idx="119">
+                <c:v>0.5789</c:v>
+              </c:pt>
+              <c:pt idx="120">
+                <c:v>0.5790</c:v>
+              </c:pt>
+              <c:pt idx="121">
+                <c:v>0.5791</c:v>
+              </c:pt>
+              <c:pt idx="122">
+                <c:v>0.5792</c:v>
+              </c:pt>
+              <c:pt idx="123">
+                <c:v>0.5793</c:v>
+              </c:pt>
+              <c:pt idx="124">
+                <c:v>0.5794</c:v>
+              </c:pt>
+              <c:pt idx="125">
+                <c:v>0.5795</c:v>
+              </c:pt>
+              <c:pt idx="126">
+                <c:v>0.5796</c:v>
+              </c:pt>
+              <c:pt idx="127">
+                <c:v>0.5797</c:v>
+              </c:pt>
+              <c:pt idx="128">
+                <c:v>0.5798</c:v>
+              </c:pt>
+              <c:pt idx="129">
+                <c:v>0.5799</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Threshold_evaluation_for_EULER_!$E$2:$E$132</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Threshold_evaluation_for_EULER_!$E$2:$E$132</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Threshold_evaluation_for_EULER_!$E$3:$E$132</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="131"/>
+                <c:ptCount val="130"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="127">
                   <c:v>9</c:v>
@@ -3541,9 +3972,6 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="130">
                   <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
@@ -3606,407 +4034,407 @@
                   <c:strRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Threshold_evaluation_for_EULER_!$A:$A</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Threshold_evaluation_for_EULER_!$A:$A</c15:sqref>
+                          <c15:sqref>Threshold_evaluation_for_EULER_!$A$2:$A$1048576</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="132"/>
+                      <c:ptCount val="131"/>
                       <c:pt idx="0">
-                        <c:v>Value for threshold delta</c:v>
+                        <c:v>0.5670</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.5670</c:v>
+                        <c:v>0.5671</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.5671</c:v>
+                        <c:v>0.5672</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.5672</c:v>
+                        <c:v>0.5673</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.5673</c:v>
+                        <c:v>0.5674</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.5674</c:v>
+                        <c:v>0.5675</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.5675</c:v>
+                        <c:v>0.5676</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.5676</c:v>
+                        <c:v>0.5677</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.5677</c:v>
+                        <c:v>0.5678</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.5678</c:v>
+                        <c:v>0.5679</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.5679</c:v>
+                        <c:v>0.5680</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.5680</c:v>
+                        <c:v>0.5681</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.5681</c:v>
+                        <c:v>0.5682</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.5682</c:v>
+                        <c:v>0.5683</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.5683</c:v>
+                        <c:v>0.5684</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.5684</c:v>
+                        <c:v>0.5685</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.5685</c:v>
+                        <c:v>0.5686</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.5686</c:v>
+                        <c:v>0.5687</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.5687</c:v>
+                        <c:v>0.5688</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.5688</c:v>
+                        <c:v>0.5689</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.5689</c:v>
+                        <c:v>0.5690</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.5690</c:v>
+                        <c:v>0.5691</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.5691</c:v>
+                        <c:v>0.5692</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.5692</c:v>
+                        <c:v>0.5693</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.5693</c:v>
+                        <c:v>0.5694</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>0.5694</c:v>
+                        <c:v>0.5695</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>0.5695</c:v>
+                        <c:v>0.5696</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>0.5696</c:v>
+                        <c:v>0.5697</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>0.5697</c:v>
+                        <c:v>0.5698</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>0.5698</c:v>
+                        <c:v>0.5699</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>0.5699</c:v>
+                        <c:v>0.5700</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>0.5700</c:v>
+                        <c:v>0.5701</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>0.5701</c:v>
+                        <c:v>0.5702</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>0.5702</c:v>
+                        <c:v>0.5703</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>0.5703</c:v>
+                        <c:v>0.5704</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>0.5704</c:v>
+                        <c:v>0.5705</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>0.5705</c:v>
+                        <c:v>0.5706</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>0.5706</c:v>
+                        <c:v>0.5707</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>0.5707</c:v>
+                        <c:v>0.5708</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>0.5708</c:v>
+                        <c:v>0.5709</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>0.5709</c:v>
+                        <c:v>0.5710</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>0.5710</c:v>
+                        <c:v>0.5711</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>0.5711</c:v>
+                        <c:v>0.5712</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>0.5712</c:v>
+                        <c:v>0.5713</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>0.5713</c:v>
+                        <c:v>0.5714</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>0.5714</c:v>
+                        <c:v>0.5715</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>0.5715</c:v>
+                        <c:v>0.5716</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>0.5716</c:v>
+                        <c:v>0.5717</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>0.5717</c:v>
+                        <c:v>0.5718</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>0.5718</c:v>
+                        <c:v>0.5719</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>0.5719</c:v>
+                        <c:v>0.5720</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>0.5720</c:v>
+                        <c:v>0.5721</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>0.5721</c:v>
+                        <c:v>0.5722</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>0.5722</c:v>
+                        <c:v>0.5723</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>0.5723</c:v>
+                        <c:v>0.5724</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>0.5724</c:v>
+                        <c:v>0.5725</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>0.5725</c:v>
+                        <c:v>0.5726</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>0.5726</c:v>
+                        <c:v>0.5727</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>0.5727</c:v>
+                        <c:v>0.5728</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>0.5728</c:v>
+                        <c:v>0.5729</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>0.5729</c:v>
+                        <c:v>0.5730</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>0.5730</c:v>
+                        <c:v>0.5731</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>0.5731</c:v>
+                        <c:v>0.5732</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>0.5732</c:v>
+                        <c:v>0.5733</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>0.5733</c:v>
+                        <c:v>0.5734</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>0.5734</c:v>
+                        <c:v>0.5735</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>0.5735</c:v>
+                        <c:v>0.5736</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>0.5736</c:v>
+                        <c:v>0.5737</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>0.5737</c:v>
+                        <c:v>0.5738</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>0.5738</c:v>
+                        <c:v>0.5739</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>0.5739</c:v>
+                        <c:v>0.5740</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>0.5740</c:v>
+                        <c:v>0.5741</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>0.5741</c:v>
+                        <c:v>0.5742</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>0.5742</c:v>
+                        <c:v>0.5743</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>0.5743</c:v>
+                        <c:v>0.5744</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>0.5744</c:v>
+                        <c:v>0.5745</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>0.5745</c:v>
+                        <c:v>0.5746</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>0.5746</c:v>
+                        <c:v>0.5747</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>0.5747</c:v>
+                        <c:v>0.5748</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>0.5748</c:v>
+                        <c:v>0.5749</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>0.5749</c:v>
+                        <c:v>0.5750</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>0.5750</c:v>
+                        <c:v>0.5751</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>0.5751</c:v>
+                        <c:v>0.5752</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>0.5752</c:v>
+                        <c:v>0.5753</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>0.5753</c:v>
+                        <c:v>0.5754</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>0.5754</c:v>
+                        <c:v>0.5755</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>0.5755</c:v>
+                        <c:v>0.5756</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>0.5756</c:v>
+                        <c:v>0.5757</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>0.5757</c:v>
+                        <c:v>0.5758</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>0.5758</c:v>
+                        <c:v>0.5759</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>0.5759</c:v>
+                        <c:v>0.5760</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>0.5760</c:v>
+                        <c:v>0.5761</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>0.5761</c:v>
+                        <c:v>0.5762</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>0.5762</c:v>
+                        <c:v>0.5763</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>0.5763</c:v>
+                        <c:v>0.5764</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>0.5764</c:v>
+                        <c:v>0.5765</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>0.5765</c:v>
+                        <c:v>0.5766</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>0.5766</c:v>
+                        <c:v>0.5767</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>0.5767</c:v>
+                        <c:v>0.5768</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>0.5768</c:v>
+                        <c:v>0.5769</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>0.5769</c:v>
+                        <c:v>0.5770</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>0.5770</c:v>
+                        <c:v>0.5771</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>0.5771</c:v>
+                        <c:v>0.5772</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>0.5772</c:v>
+                        <c:v>0.5773</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>0.5773</c:v>
+                        <c:v>0.5774</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>0.5774</c:v>
+                        <c:v>0.5775</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>0.5775</c:v>
+                        <c:v>0.5776</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>0.5776</c:v>
+                        <c:v>0.5777</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>0.5777</c:v>
+                        <c:v>0.5778</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>0.5778</c:v>
+                        <c:v>0.5779</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>0.5779</c:v>
+                        <c:v>0.5780</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>0.5780</c:v>
+                        <c:v>0.5781</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>0.5781</c:v>
+                        <c:v>0.5782</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>0.5782</c:v>
+                        <c:v>0.5783</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>0.5783</c:v>
+                        <c:v>0.5784</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>0.5784</c:v>
+                        <c:v>0.5785</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>0.5785</c:v>
+                        <c:v>0.5786</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>0.5786</c:v>
+                        <c:v>0.5787</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>0.5787</c:v>
+                        <c:v>0.5788</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>0.5788</c:v>
+                        <c:v>0.5789</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>0.5789</c:v>
+                        <c:v>0.5790</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>0.5790</c:v>
+                        <c:v>0.5791</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>0.5791</c:v>
+                        <c:v>0.5792</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>0.5792</c:v>
+                        <c:v>0.5793</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>0.5793</c:v>
+                        <c:v>0.5794</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>0.5794</c:v>
+                        <c:v>0.5795</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>0.5795</c:v>
+                        <c:v>0.5796</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>0.5796</c:v>
+                        <c:v>0.5797</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>0.5797</c:v>
+                        <c:v>0.5798</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>0.5798</c:v>
+                        <c:v>0.5799</c:v>
                       </c:pt>
                       <c:pt idx="130">
-                        <c:v>0.5799</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
                         <c:v>0.5800</c:v>
                       </c:pt>
                     </c:strCache>
@@ -4016,405 +4444,405 @@
                   <c:numRef>
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Threshold_evaluation_for_EULER_!$A$2:$A$132</c15:sqref>
+                        </c15:fullRef>
                         <c15:formulaRef>
-                          <c15:sqref>Threshold_evaluation_for_EULER_!$A$2:$A$132</c15:sqref>
+                          <c15:sqref>Threshold_evaluation_for_EULER_!$A$3:$A$132</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>0.0000</c:formatCode>
-                      <c:ptCount val="131"/>
+                      <c:ptCount val="130"/>
                       <c:pt idx="0">
-                        <c:v>0.56699999999999995</c:v>
+                        <c:v>0.56710000000000005</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.56710000000000005</c:v>
+                        <c:v>0.56720000000000004</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.56720000000000004</c:v>
+                        <c:v>0.56730000000000003</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.56730000000000003</c:v>
+                        <c:v>0.56740000000000002</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.56740000000000002</c:v>
+                        <c:v>0.5675</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.5675</c:v>
+                        <c:v>0.56759999999999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.56759999999999999</c:v>
+                        <c:v>0.56769999999999998</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.56769999999999998</c:v>
+                        <c:v>0.56779999999999997</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.56779999999999997</c:v>
+                        <c:v>0.56789999999999996</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.56789999999999996</c:v>
+                        <c:v>0.56799999999999995</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.56799999999999995</c:v>
+                        <c:v>0.56810000000000005</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.56810000000000005</c:v>
+                        <c:v>0.56820000000000004</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.56820000000000004</c:v>
+                        <c:v>0.56830000000000003</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>0.56830000000000003</c:v>
+                        <c:v>0.56840000000000002</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>0.56840000000000002</c:v>
+                        <c:v>0.56850000000000001</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>0.56850000000000001</c:v>
+                        <c:v>0.56859999999999999</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>0.56859999999999999</c:v>
+                        <c:v>0.56869999999999998</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>0.56869999999999998</c:v>
+                        <c:v>0.56879999999999997</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>0.56879999999999997</c:v>
+                        <c:v>0.56889999999999996</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>0.56889999999999996</c:v>
+                        <c:v>0.56899999999999995</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>0.56899999999999995</c:v>
+                        <c:v>0.56910000000000005</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>0.56910000000000005</c:v>
+                        <c:v>0.56920000000000004</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>0.56920000000000004</c:v>
+                        <c:v>0.56930000000000003</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>0.56930000000000003</c:v>
+                        <c:v>0.56940000000000002</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>0.56940000000000002</c:v>
+                        <c:v>0.56950000000000001</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>0.56950000000000001</c:v>
+                        <c:v>0.5696</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>0.5696</c:v>
+                        <c:v>0.56969999999999998</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>0.56969999999999998</c:v>
+                        <c:v>0.56979999999999997</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>0.56979999999999997</c:v>
+                        <c:v>0.56989999999999996</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>0.56989999999999996</c:v>
+                        <c:v>0.56999999999999995</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>0.56999999999999995</c:v>
+                        <c:v>0.57010000000000005</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>0.57010000000000005</c:v>
+                        <c:v>0.57020000000000004</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>0.57020000000000004</c:v>
+                        <c:v>0.57030000000000003</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>0.57030000000000003</c:v>
+                        <c:v>0.57040000000000002</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>0.57040000000000002</c:v>
+                        <c:v>0.57050000000000001</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>0.57050000000000001</c:v>
+                        <c:v>0.5706</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>0.5706</c:v>
+                        <c:v>0.57069999999999999</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>0.57069999999999999</c:v>
+                        <c:v>0.57079999999999997</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>0.57079999999999997</c:v>
+                        <c:v>0.57089999999999996</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>0.57089999999999996</c:v>
+                        <c:v>0.57099999999999995</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>0.57099999999999995</c:v>
+                        <c:v>0.57110000000000005</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>0.57110000000000005</c:v>
+                        <c:v>0.57120000000000004</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>0.57120000000000004</c:v>
+                        <c:v>0.57130000000000003</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>0.57130000000000003</c:v>
+                        <c:v>0.57140000000000002</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>0.57140000000000002</c:v>
+                        <c:v>0.57150000000000001</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>0.57150000000000001</c:v>
+                        <c:v>0.5716</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>0.5716</c:v>
+                        <c:v>0.57169999999999999</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>0.57169999999999999</c:v>
+                        <c:v>0.57179999999999997</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>0.57179999999999997</c:v>
+                        <c:v>0.57189999999999996</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>0.57189999999999996</c:v>
+                        <c:v>0.57199999999999995</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>0.57199999999999995</c:v>
+                        <c:v>0.57210000000000005</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>0.57210000000000005</c:v>
+                        <c:v>0.57220000000000004</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>0.57220000000000004</c:v>
+                        <c:v>0.57230000000000003</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>0.57230000000000003</c:v>
+                        <c:v>0.57240000000000002</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>0.57240000000000002</c:v>
+                        <c:v>0.57250000000000001</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>0.57250000000000001</c:v>
+                        <c:v>0.5726</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>0.5726</c:v>
+                        <c:v>0.57269999999999999</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>0.57269999999999999</c:v>
+                        <c:v>0.57279999999999998</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>0.57279999999999998</c:v>
+                        <c:v>0.57289999999999996</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>0.57289999999999996</c:v>
+                        <c:v>0.57299999999999995</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>0.57299999999999995</c:v>
+                        <c:v>0.57310000000000005</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>0.57310000000000005</c:v>
+                        <c:v>0.57320000000000004</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>0.57320000000000004</c:v>
+                        <c:v>0.57330000000000003</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>0.57330000000000003</c:v>
+                        <c:v>0.57340000000000002</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>0.57340000000000002</c:v>
+                        <c:v>0.57350000000000001</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>0.57350000000000001</c:v>
+                        <c:v>0.5736</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>0.5736</c:v>
+                        <c:v>0.57369999999999999</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>0.57369999999999999</c:v>
+                        <c:v>0.57379999999999998</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>0.57379999999999998</c:v>
+                        <c:v>0.57389999999999997</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>0.57389999999999997</c:v>
+                        <c:v>0.57399999999999995</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>0.57399999999999995</c:v>
+                        <c:v>0.57410000000000005</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>0.57410000000000005</c:v>
+                        <c:v>0.57420000000000004</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>0.57420000000000004</c:v>
+                        <c:v>0.57430000000000003</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>0.57430000000000003</c:v>
+                        <c:v>0.57440000000000002</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>0.57440000000000002</c:v>
+                        <c:v>0.57450000000000001</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>0.57450000000000001</c:v>
+                        <c:v>0.5746</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>0.5746</c:v>
+                        <c:v>0.57469999999999999</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>0.57469999999999999</c:v>
+                        <c:v>0.57479999999999998</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>0.57479999999999998</c:v>
+                        <c:v>0.57489999999999997</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>0.57489999999999997</c:v>
+                        <c:v>0.57499999999999996</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>0.57499999999999996</c:v>
+                        <c:v>0.57509999999999994</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>0.57509999999999994</c:v>
+                        <c:v>0.57520000000000004</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>0.57520000000000004</c:v>
+                        <c:v>0.57530000000000003</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>0.57530000000000003</c:v>
+                        <c:v>0.57540000000000002</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>0.57540000000000002</c:v>
+                        <c:v>0.57550000000000001</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>0.57550000000000001</c:v>
+                        <c:v>0.5756</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>0.5756</c:v>
+                        <c:v>0.57569999999999999</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>0.57569999999999999</c:v>
+                        <c:v>0.57579999999999998</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>0.57579999999999998</c:v>
+                        <c:v>0.57589999999999997</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>0.57589999999999997</c:v>
+                        <c:v>0.57599999999999996</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>0.57599999999999996</c:v>
+                        <c:v>0.57609999999999995</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>0.57609999999999995</c:v>
+                        <c:v>0.57620000000000005</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>0.57620000000000005</c:v>
+                        <c:v>0.57630000000000003</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>0.57630000000000003</c:v>
+                        <c:v>0.57640000000000002</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>0.57640000000000002</c:v>
+                        <c:v>0.57650000000000001</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>0.57650000000000001</c:v>
+                        <c:v>0.5766</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>0.5766</c:v>
+                        <c:v>0.57669999999999999</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>0.57669999999999999</c:v>
+                        <c:v>0.57679999999999998</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>0.57679999999999998</c:v>
+                        <c:v>0.57689999999999997</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>0.57689999999999997</c:v>
+                        <c:v>0.57699999999999996</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>0.57699999999999996</c:v>
+                        <c:v>0.57709999999999995</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>0.57709999999999995</c:v>
+                        <c:v>0.57720000000000005</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>0.57720000000000005</c:v>
+                        <c:v>0.57730000000000004</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>0.57730000000000004</c:v>
+                        <c:v>0.57740000000000002</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>0.57740000000000002</c:v>
+                        <c:v>0.57750000000000001</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>0.57750000000000001</c:v>
+                        <c:v>0.5776</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>0.5776</c:v>
+                        <c:v>0.57769999999999999</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>0.57769999999999999</c:v>
+                        <c:v>0.57779999999999998</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>0.57779999999999998</c:v>
+                        <c:v>0.57789999999999997</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>0.57789999999999997</c:v>
+                        <c:v>0.57799999999999996</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>0.57799999999999996</c:v>
+                        <c:v>0.57809999999999995</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>0.57809999999999995</c:v>
+                        <c:v>0.57820000000000005</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>0.57820000000000005</c:v>
+                        <c:v>0.57830000000000004</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>0.57830000000000004</c:v>
+                        <c:v>0.57840000000000003</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>0.57840000000000003</c:v>
+                        <c:v>0.57850000000000001</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>0.57850000000000001</c:v>
+                        <c:v>0.5786</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>0.5786</c:v>
+                        <c:v>0.57869999999999999</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>0.57869999999999999</c:v>
+                        <c:v>0.57879999999999998</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>0.57879999999999998</c:v>
+                        <c:v>0.57889999999999997</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>0.57889999999999997</c:v>
+                        <c:v>0.57899999999999996</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>0.57899999999999996</c:v>
+                        <c:v>0.57909999999999995</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>0.57909999999999995</c:v>
+                        <c:v>0.57920000000000005</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>0.57920000000000005</c:v>
+                        <c:v>0.57930000000000004</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>0.57930000000000004</c:v>
+                        <c:v>0.57940000000000003</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>0.57940000000000003</c:v>
+                        <c:v>0.57950000000000002</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>0.57950000000000002</c:v>
+                        <c:v>0.5796</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>0.5796</c:v>
+                        <c:v>0.57969999999999999</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>0.57969999999999999</c:v>
+                        <c:v>0.57979999999999998</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>0.57979999999999998</c:v>
+                        <c:v>0.57989999999999997</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>0.57989999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
                         <c:v>0.57999999999999996</c:v>
                       </c:pt>
                     </c:numCache>
